--- a/2025_Website_Enhancements/JIRA Stories/JIRA_20250826.xlsx
+++ b/2025_Website_Enhancements/JIRA Stories/JIRA_20250826.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoeDunn/Documents/2025_Website_Enhancements/JIRA Stories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5CDFDD-8CE0-FD41-AE19-32D7B4CF686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F87B5EB-7C59-094E-A313-85897A1491EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{B2BC2DD6-2D6B-214F-BCF6-1E76C814CC73}"/>
   </bookViews>
@@ -1727,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEF9CDF-DC01-C74D-8669-A8FDB6758464}">
   <dimension ref="A1:DU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BQ11" sqref="BQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
